--- a/docs/StructureDefinition-MedicationDispenseRefill.xlsx
+++ b/docs/StructureDefinition-MedicationDispenseRefill.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationDispenseRefill.xlsx
+++ b/docs/StructureDefinition-MedicationDispenseRefill.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationDispenseRefill.xlsx
+++ b/docs/StructureDefinition-MedicationDispenseRefill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationDispenseRefill.xlsx
+++ b/docs/StructureDefinition-MedicationDispenseRefill.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationDispenseRefill.xlsx
+++ b/docs/StructureDefinition-MedicationDispenseRefill.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -555,7 +555,10 @@
     <t>1555: fixed value = #in-progress when PRESCRIPTION - RELEASED DATE/TIME (52-31) if null</t>
   </si>
   <si>
-    <t>Medication.RefillNumber,Medication.EBilling,Medication.Fills,Medication.LastFilled</t>
+    <t>Medication.RefillNumber
+Medication.EBilling
+Medication.Fills
+Medication.LastFilled</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -846,15 +849,24 @@
     <t>1561: source value based on PRESCRIPTION - DRUG &gt; DRUG - PSNDF VA PRODUCT NAME ENTRY (52-6 &gt; 50-22)</t>
   </si>
   <si>
-    <t>RxOut.RxOutpat.LocalDrugIEN,RxOut.RxOutpat.NationalDrugIEN,RxOut.RxOutpatFill.LocalDrugIEN,RxOut.RxOutpatFill.NationalDrugIEN
-Dim.LocalDrug.DrugNameWithoutDoseIEN,Dim.LocalDrug.NationalDrugIEN,Dim.LocalDrug.NationalDrugIEN</t>
-  </si>
-  <si>
-    <t>Medication.DrugProduct,Medication.CMOP
-Medication.DrugProduct.Identifier2,Medication.DrugProduct.ProductName,Medication.Extension[DrugProductExtension].FederalSchedule</t>
-  </si>
-  <si>
-    <t>med.route (&gt;51.2-1),pharmacy (med).route (&gt;51.2-1)</t>
+    <t>RxOut.RxOutpat.LocalDrugIEN
+RxOut.RxOutpat.NationalDrugIEN
+RxOut.RxOutpatFill.LocalDrugIEN
+RxOut.RxOutpatFill.NationalDrugIEN
+Dim.LocalDrug.DrugNameWithoutDoseIEN
+Dim.LocalDrug.NationalDrugIEN
+Dim.LocalDrug.NationalDrugIEN</t>
+  </si>
+  <si>
+    <t>Medication.DrugProduct
+Medication.CMOP
+Medication.DrugProduct.Identifier2
+Medication.DrugProduct.ProductName
+Medication.Extension[DrugProductExtension].FederalSchedule</t>
+  </si>
+  <si>
+    <t>med.route (&gt;51.2-1)
+pharmacy (med).route (&gt;51.2-1)</t>
   </si>
   <si>
     <t>./code</t>
@@ -942,12 +954,27 @@
     <t>1560: source value based on PRESCRIPTION - DRUG &gt; DRUG - GENERIC NAME (52-6 &gt; 50-.01)</t>
   </si>
   <si>
-    <t>RxOut.RxOutpat.LocalDrugIEN,RxOut.RxOutpat.NationalDrugIEN,RxOut.RxOutpatFill.LocalDrugIEN,RxOut.RxOutpatFill.NationalDrugIEN
-Dim.LocalDrug.LocalDrugNameWithDose,Dim.LocalDrug.LocalDrugNameWithDose,RxOut.RxOutpatFill.LocalDrugNameWithDose</t>
-  </si>
-  <si>
-    <t>Medication.DrugProduct,Medication.CMOP
-Medication.ComponentMeds[DrugProduct].Description,Medication.ComponentMeds[DrugProduct].OriginalText,Medication.DrugProduct.Description,Medication.DrugProduct.OriginalText,Medication.ATCCode.Code,Medication.Generic.Description,Medication.Route.Description,Medication.OrderCategory.Description,Medication.OriginalText,Medication.OriginalText</t>
+    <t>RxOut.RxOutpat.LocalDrugIEN
+RxOut.RxOutpat.NationalDrugIEN
+RxOut.RxOutpatFill.LocalDrugIEN
+RxOut.RxOutpatFill.NationalDrugIEN
+Dim.LocalDrug.LocalDrugNameWithDose
+Dim.LocalDrug.LocalDrugNameWithDose
+RxOut.RxOutpatFill.LocalDrugNameWithDose</t>
+  </si>
+  <si>
+    <t>Medication.DrugProduct
+Medication.CMOP
+Medication.ComponentMeds[DrugProduct].Description
+Medication.ComponentMeds[DrugProduct].OriginalText
+Medication.DrugProduct.Description
+Medication.DrugProduct.OriginalText
+Medication.ATCCode.Code
+Medication.Generic.Description
+Medication.Route.Description
+Medication.OrderCategory.Description
+Medication.OriginalText
+Medication.OriginalText</t>
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
@@ -975,10 +1002,18 @@
     <t>1551: reference based on PRESCRIPTION - PATIENT (52-2)</t>
   </si>
   <si>
-    <t>RxOut.ActivityLog.PatientIEN,RxOut.ActivityLogOtherComments.PatientIEN,RxOut.RxOutpat.PatientIEN,RxOut.RxOutpatExt.PatientIEN,RxOut.RxOutpatExt.PatientSID,RxOut.RxOutpatFill.PatientIEN,RxOut.RxOutpatMedInstructions.PatientIEN,RxOut.RxOutpatSig.PatientIEN</t>
-  </si>
-  <si>
-    <t>med.units (&gt;50.607-.01),pharmacy (med).units (&gt;50.607-.01)</t>
+    <t>RxOut.ActivityLog.PatientIEN
+RxOut.ActivityLogOtherComments.PatientIEN
+RxOut.RxOutpat.PatientIEN
+RxOut.RxOutpatExt.PatientIEN
+RxOut.RxOutpatExt.PatientSID
+RxOut.RxOutpatFill.PatientIEN
+RxOut.RxOutpatMedInstructions.PatientIEN
+RxOut.RxOutpatSig.PatientIEN</t>
+  </si>
+  <si>
+    <t>med.units (&gt;50.607-.01)
+pharmacy (med).units (&gt;50.607-.01)</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1157,7 +1192,8 @@
     <t>RxOut.RxOutpat.CPRSOrderEntryNumber</t>
   </si>
   <si>
-    <t>Medication.ExternalId,Medication.PlacerId</t>
+    <t>Medication.ExternalId
+Medication.PlacerId</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -2009,10 +2045,21 @@
     <t>RxOut.RxOutpatMedInstructions.DoseOrdered</t>
   </si>
   <si>
-    <t>Medication.DosageSteps,Medication.Route,Medication.DoseQuantity,Medication.DoseUoM,Medication.Duration,Medication.Frequency,Medication.TextInstruction,Medication.Conjunction,Medication.Noun,Medication.UnitsPerDose,Medication.Verb</t>
-  </si>
-  <si>
-    <t>med.dose [m],pharmacy (med).dose [m]</t>
+    <t>Medication.DosageSteps
+Medication.Route
+Medication.DoseQuantity
+Medication.DoseUoM
+Medication.Duration
+Medication.Frequency
+Medication.TextInstruction
+Medication.Conjunction
+Medication.Noun
+Medication.UnitsPerDose
+Medication.Verb</t>
+  </si>
+  <si>
+    <t>med.dose [m]
+pharmacy (med).dose [m]</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.doseAndRate.dose[x]:doseQuantity.comparator</t>
@@ -2649,9 +2696,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="128.0546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="214.2421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="49.94921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.1328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="245.42578125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-MedicationDispenseRefill.xlsx
+++ b/docs/StructureDefinition-MedicationDispenseRefill.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationDispenseRefill.xlsx
+++ b/docs/StructureDefinition-MedicationDispenseRefill.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
